--- a/data/Proposals (2).xlsx
+++ b/data/Proposals (2).xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29404"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="44" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3576DA5-CC9A-4362-AB06-9267546213B4}"/>
+  <xr:revisionPtr revIDLastSave="81" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08D75978-5083-4455-BB95-C88CBAACA8DC}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
   <si>
     <t>Location type</t>
   </si>
@@ -42,6 +42,9 @@
     <t>Location name</t>
   </si>
   <si>
+    <t>Project name</t>
+  </si>
+  <si>
     <t>Proposal Video</t>
   </si>
   <si>
@@ -51,23 +54,71 @@
     <t>S1A</t>
   </si>
   <si>
+    <t>College of Arts</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S1A,S1B,S46</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/Yrwp9737DZs</t>
+  </si>
+  <si>
     <t>S1B</t>
   </si>
   <si>
+    <t>College of Business Administration</t>
+  </si>
+  <si>
     <t>S2</t>
   </si>
   <si>
+    <t>Administration Building</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/embed/M3hbEad82cM</t>
   </si>
   <si>
     <t>S46</t>
+  </si>
+  <si>
+    <t>Personnel Affairs Department</t>
+  </si>
+  <si>
+    <t>S44</t>
+  </si>
+  <si>
+    <t>Bahrain Teachers College</t>
+  </si>
+  <si>
+    <t>S22,S44</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/_SRdVoNWdnQ</t>
+  </si>
+  <si>
+    <t>S22</t>
+  </si>
+  <si>
+    <t>Media Center</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>Deanship of Students' Affairs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/jidaow2wtVI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/KIqGjib7cZ8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,6 +133,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -105,7 +162,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -114,6 +171,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -449,24 +507,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.42578125" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" customWidth="1"/>
+    <col min="5" max="5" width="46.42578125" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -479,41 +538,144 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C9" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -523,7 +685,14 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" xr:uid="{4E0628BD-9406-49F7-8D90-BD0F8565694E}"/>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{4E0628BD-9406-49F7-8D90-BD0F8565694E}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{42637724-1DEB-4A60-A82D-421889E6B9F5}"/>
+    <hyperlink ref="E3" r:id="rId3" xr:uid="{1E0BF1A4-2678-4287-9379-100AD7A04A25}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{D0E2A84E-503E-48DD-B5BC-45DE55A6605E}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{B73FFA66-1B89-4FF1-B630-E672B032E41F}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{798B06DC-8B91-4B47-BE14-12302E9E3FE6}"/>
+    <hyperlink ref="E8" r:id="rId7" xr:uid="{5A124BA8-B21D-4115-8664-307336A3B1CC}"/>
+    <hyperlink ref="E9" r:id="rId8" xr:uid="{FD9D98D2-78E0-40FD-A335-C344F0559BDF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
